--- a/List_of_crops_update_all_3.xlsx
+++ b/List_of_crops_update_all_3.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\antigravity\Land cover\github\Land-cover-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673410D-2D9B-4C64-8709-FAB97E8C23B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5359F5E2-0514-465E-97EF-D685B86B6202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{ADA269A6-2ED3-4A77-8230-6F13C182E555}"/>
+    <workbookView xWindow="770" yWindow="4280" windowWidth="23230" windowHeight="10180" xr2:uid="{ADA269A6-2ED3-4A77-8230-6F13C182E555}"/>
   </bookViews>
   <sheets>
-    <sheet name="Crop_list_GTM" sheetId="2" r:id="rId1"/>
-    <sheet name="Crop_list_TUN" sheetId="3" r:id="rId2"/>
-    <sheet name="Crop_list_MZB" sheetId="6" r:id="rId3"/>
-    <sheet name="Crop_list_KNY" sheetId="5" r:id="rId4"/>
-    <sheet name="Crop_list_ZMB" sheetId="4" r:id="rId5"/>
-    <sheet name="Crop_list_GHA" sheetId="7" r:id="rId6"/>
+    <sheet name="Crop_list_HND" sheetId="8" r:id="rId1"/>
+    <sheet name="Crop_list_GTM" sheetId="2" r:id="rId2"/>
+    <sheet name="Crop_list_TUN" sheetId="3" r:id="rId3"/>
+    <sheet name="Crop_list_MZB" sheetId="6" r:id="rId4"/>
+    <sheet name="Crop_list_KNY" sheetId="5" r:id="rId5"/>
+    <sheet name="Crop_list_ZMB" sheetId="4" r:id="rId6"/>
+    <sheet name="Crop_list_GHA" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crop_list_GTM!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Crop_list_GTM!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crop_list_HND!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="282">
   <si>
     <t>Level_1</t>
   </si>
@@ -1525,6 +1527,884 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7243B40-C8D7-464C-A7B9-7DE02DF4FE0D}">
+  <dimension ref="A1:C78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E68490-0290-496A-96FF-4A55EF206F51}">
   <dimension ref="A1:C78"/>
   <sheetViews>
@@ -2402,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DA3773-6B5A-41DB-AD2A-A19E56B0A893}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -2883,7 +3763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528A2A70-2F6F-40BB-B5B3-D09006214570}">
   <dimension ref="A1:C56"/>
   <sheetViews>
@@ -3519,7 +4399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F421573-7F45-40AE-9E4F-984A0D6DDEFC}">
   <dimension ref="A1:C88"/>
   <sheetViews>
@@ -4507,7 +5387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FCB13-5648-4E3C-9870-AC07540F3365}">
   <dimension ref="A1:C103"/>
   <sheetViews>
@@ -5660,11 +6540,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D785B8F3-0A92-475D-AD83-C65ACDAFA057}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
